--- a/unbalance_capacitor_back_protection.xlsx
+++ b/unbalance_capacitor_back_protection.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ultimo_banco_fusiveis_internos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F74538-78AB-4AA5-B067-BEC3649EEFA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4755" yWindow="2700" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="internal_fused" sheetId="1" r:id="rId1"/>
@@ -18,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">internal_fused!$A$1:$R$1</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>burned</t>
   </si>
@@ -82,11 +76,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,21 +207,13 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -265,7 +251,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -299,7 +285,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -334,10 +319,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -510,15 +494,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M20" sqref="M20"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="14" width="12.7109375" customWidth="1"/>
@@ -528,7 +512,7 @@
     <col min="18" max="18" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,7 +568,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -631,7 +615,7 @@
         <v>167.34790411</v>
       </c>
       <c r="P2" s="3">
-        <v>19918.584287040001</v>
+        <v>19918.58428704</v>
       </c>
       <c r="Q2" s="3">
         <v>0</v>
@@ -640,33 +624,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>0.92857142999999998</v>
+        <v>0.92857143</v>
       </c>
       <c r="C3" s="5">
-        <v>0.97499999999999998</v>
+        <v>0.975</v>
       </c>
       <c r="D3" s="5">
-        <v>0.99166666999999997</v>
+        <v>0.99166667</v>
       </c>
       <c r="E3" s="5">
-        <v>0.99790356000000002</v>
+        <v>0.99790356</v>
       </c>
       <c r="F3" s="5">
-        <v>0.99942823999999997</v>
+        <v>0.99942824</v>
       </c>
       <c r="G3" s="5">
-        <v>1.9061999999999999E-4</v>
+        <v>0.00019062</v>
       </c>
       <c r="H3" s="5">
-        <v>1.0001906199999999</v>
+        <v>1.00019062</v>
       </c>
       <c r="I3" s="5">
-        <v>1.0064811300000001</v>
+        <v>1.00648113</v>
       </c>
       <c r="J3" s="5">
         <v>1.05680518</v>
@@ -675,48 +659,48 @@
         <v>0.9813191</v>
       </c>
       <c r="L3" s="5">
-        <v>0.99809378999999998</v>
+        <v>0.99809379</v>
       </c>
       <c r="M3" s="5">
-        <v>0.99961876000000005</v>
+        <v>0.9996187600000001</v>
       </c>
       <c r="N3" s="5">
-        <v>2.5994000000000001E-4</v>
+        <v>0.00025994</v>
       </c>
       <c r="O3" s="5">
-        <v>167.28410392000001</v>
+        <v>167.28410392</v>
       </c>
       <c r="P3" s="5">
         <v>19922.38119598</v>
       </c>
       <c r="Q3" s="5">
-        <v>4.3500129999999998E-2</v>
+        <v>0.04350013</v>
       </c>
       <c r="R3" s="5">
-        <v>3.7969089399999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>3.79690894</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>0.85714285999999995</v>
+        <v>0.85714286</v>
       </c>
       <c r="C4" s="3">
-        <v>0.94736841999999999</v>
+        <v>0.94736842</v>
       </c>
       <c r="D4" s="3">
-        <v>0.98245614000000003</v>
+        <v>0.98245614</v>
       </c>
       <c r="E4" s="3">
-        <v>0.99555556000000001</v>
+        <v>0.99555556</v>
       </c>
       <c r="F4" s="3">
-        <v>0.99878787999999996</v>
+        <v>0.99878788</v>
       </c>
       <c r="G4" s="3">
-        <v>4.0420000000000001E-4</v>
+        <v>0.0004042</v>
       </c>
       <c r="H4" s="3">
         <v>1.0004042</v>
@@ -725,75 +709,75 @@
         <v>1.01374293</v>
       </c>
       <c r="J4" s="3">
-        <v>1.1204527099999999</v>
+        <v>1.12045271</v>
       </c>
       <c r="K4" s="3">
         <v>0.96038804</v>
       </c>
       <c r="L4" s="3">
-        <v>0.99595796000000003</v>
+        <v>0.99595796</v>
       </c>
       <c r="M4" s="3">
-        <v>0.99919159000000002</v>
+        <v>0.99919159</v>
       </c>
       <c r="N4" s="3">
-        <v>5.5119000000000001E-4</v>
+        <v>0.00055119</v>
       </c>
       <c r="O4" s="3">
-        <v>167.21261881999999</v>
+        <v>167.21261882</v>
       </c>
       <c r="P4" s="3">
         <v>19926.63545288</v>
       </c>
       <c r="Q4" s="3">
-        <v>9.2239970000000004E-2</v>
+        <v>0.09223997</v>
       </c>
       <c r="R4" s="3">
-        <v>8.0511658399999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>8.051165839999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>0.78571429000000004</v>
+        <v>0.78571429</v>
       </c>
       <c r="C5" s="5">
-        <v>0.91666667000000002</v>
+        <v>0.91666667</v>
       </c>
       <c r="D5" s="5">
-        <v>0.97222222000000003</v>
+        <v>0.97222222</v>
       </c>
       <c r="E5" s="5">
-        <v>0.99290780000000001</v>
+        <v>0.9929078</v>
       </c>
       <c r="F5" s="5">
-        <v>0.99806576000000002</v>
+        <v>0.99806576</v>
       </c>
       <c r="G5" s="5">
-        <v>6.4515999999999998E-4</v>
+        <v>0.00064516</v>
       </c>
       <c r="H5" s="5">
-        <v>1.0006451599999999</v>
+        <v>1.00064516</v>
       </c>
       <c r="I5" s="5">
         <v>1.02193548</v>
       </c>
       <c r="J5" s="5">
-        <v>1.1922580599999999</v>
+        <v>1.19225806</v>
       </c>
       <c r="K5" s="5">
-        <v>0.93677418999999995</v>
+        <v>0.93677419</v>
       </c>
       <c r="L5" s="5">
-        <v>0.99354838999999995</v>
+        <v>0.9935483899999999</v>
       </c>
       <c r="M5" s="5">
-        <v>0.99870968000000004</v>
+        <v>0.99870968</v>
       </c>
       <c r="N5" s="5">
-        <v>8.7976999999999999E-4</v>
+        <v>0.00087977</v>
       </c>
       <c r="O5" s="5">
         <v>167.13197133</v>
@@ -802,54 +786,54 @@
         <v>19931.43498658</v>
       </c>
       <c r="Q5" s="5">
-        <v>0.14722689999999999</v>
+        <v>0.1472269</v>
       </c>
       <c r="R5" s="5">
-        <v>12.850699540000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>12.85069954</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>0.71428570999999996</v>
+        <v>0.71428571</v>
       </c>
       <c r="C6" s="3">
-        <v>0.88235293999999997</v>
+        <v>0.88235294</v>
       </c>
       <c r="D6" s="3">
-        <v>0.96078430999999997</v>
+        <v>0.96078431</v>
       </c>
       <c r="E6" s="3">
-        <v>0.98989899000000003</v>
+        <v>0.98989899</v>
       </c>
       <c r="F6" s="3">
-        <v>0.99724517999999995</v>
+        <v>0.99724518</v>
       </c>
       <c r="G6" s="3">
-        <v>9.1912000000000005E-4</v>
+        <v>0.00091912</v>
       </c>
       <c r="H6" s="3">
-        <v>1.0009191200000001</v>
+        <v>1.00091912</v>
       </c>
       <c r="I6" s="3">
         <v>1.03125</v>
       </c>
       <c r="J6" s="3">
-        <v>1.2738970599999999</v>
+        <v>1.27389706</v>
       </c>
       <c r="K6" s="3">
-        <v>0.90992647000000004</v>
+        <v>0.90992647</v>
       </c>
       <c r="L6" s="3">
-        <v>0.99080882000000003</v>
+        <v>0.99080882</v>
       </c>
       <c r="M6" s="3">
-        <v>0.99816176000000001</v>
+        <v>0.99816176</v>
       </c>
       <c r="N6" s="3">
-        <v>1.2533399999999999E-3</v>
+        <v>0.00125334</v>
       </c>
       <c r="O6" s="3">
         <v>167.04027929</v>
@@ -858,125 +842,125 @@
         <v>19936.89180936</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.20974419999999999</v>
+        <v>0.2097442</v>
       </c>
       <c r="R6" s="3">
         <v>18.30752232</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>0.64285714000000005</v>
+        <v>0.64285714</v>
       </c>
       <c r="C7" s="5">
         <v>0.84375</v>
       </c>
       <c r="D7" s="5">
-        <v>0.94791667000000002</v>
+        <v>0.94791667</v>
       </c>
       <c r="E7" s="5">
-        <v>0.98644986000000001</v>
+        <v>0.98644986</v>
       </c>
       <c r="F7" s="5">
-        <v>0.99630450999999998</v>
+        <v>0.99630451</v>
       </c>
       <c r="G7" s="5">
-        <v>1.23335E-3</v>
+        <v>0.00123335</v>
       </c>
       <c r="H7" s="5">
-        <v>1.0012333499999999</v>
+        <v>1.00123335</v>
       </c>
       <c r="I7" s="5">
-        <v>1.0419338899999999</v>
+        <v>1.04193389</v>
       </c>
       <c r="J7" s="5">
-        <v>1.3675382300000001</v>
+        <v>1.36753823</v>
       </c>
       <c r="K7" s="5">
-        <v>0.87913171999999995</v>
+        <v>0.8791317199999999</v>
       </c>
       <c r="L7" s="5">
         <v>0.9876665</v>
       </c>
       <c r="M7" s="5">
-        <v>0.99753329999999996</v>
+        <v>0.9975333</v>
       </c>
       <c r="N7" s="5">
-        <v>1.68184E-3</v>
+        <v>0.00168184</v>
       </c>
       <c r="O7" s="5">
-        <v>166.93510710999999</v>
+        <v>166.93510711</v>
       </c>
       <c r="P7" s="5">
-        <v>19943.150868550001</v>
+        <v>19943.15086855</v>
       </c>
       <c r="Q7" s="5">
-        <v>0.28145249999999999</v>
+        <v>0.2814525</v>
       </c>
       <c r="R7" s="5">
-        <v>24.566581509999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>24.56658151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>0.57142857000000002</v>
+        <v>0.57142857</v>
       </c>
       <c r="C8" s="3">
         <v>0.8</v>
       </c>
       <c r="D8" s="3">
-        <v>0.93333332999999996</v>
+        <v>0.93333333</v>
       </c>
       <c r="E8" s="3">
-        <v>0.98245614000000003</v>
+        <v>0.98245614</v>
       </c>
       <c r="F8" s="3">
-        <v>0.99521530999999996</v>
+        <v>0.99521531</v>
       </c>
       <c r="G8" s="3">
-        <v>1.5974400000000001E-3</v>
+        <v>0.00159744</v>
       </c>
       <c r="H8" s="3">
-        <v>1.0015974400000001</v>
+        <v>1.00159744</v>
       </c>
       <c r="I8" s="3">
-        <v>1.0543130999999999</v>
+        <v>1.0543131</v>
       </c>
       <c r="J8" s="3">
-        <v>1.4760383399999999</v>
+        <v>1.47603834</v>
       </c>
       <c r="K8" s="3">
         <v>0.84345048</v>
       </c>
       <c r="L8" s="3">
-        <v>0.98402555999999997</v>
+        <v>0.98402556</v>
       </c>
       <c r="M8" s="3">
-        <v>0.99680511000000005</v>
+        <v>0.99680511</v>
       </c>
       <c r="N8" s="3">
-        <v>2.17833E-3</v>
+        <v>0.00217833</v>
       </c>
       <c r="O8" s="3">
-        <v>166.81324627000001</v>
+        <v>166.81324627</v>
       </c>
       <c r="P8" s="3">
         <v>19950.40311178</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.36453943999999999</v>
+        <v>0.36453944</v>
       </c>
       <c r="R8" s="3">
         <v>31.81882474</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -987,113 +971,113 @@
         <v>0.75</v>
       </c>
       <c r="D9" s="5">
-        <v>0.91666667000000002</v>
+        <v>0.91666667</v>
       </c>
       <c r="E9" s="5">
-        <v>0.97777778000000004</v>
+        <v>0.97777778</v>
       </c>
       <c r="F9" s="5">
-        <v>0.99393938999999998</v>
+        <v>0.99393939</v>
       </c>
       <c r="G9" s="5">
-        <v>2.0242900000000002E-3</v>
+        <v>0.00202429</v>
       </c>
       <c r="H9" s="5">
         <v>1.00202429</v>
       </c>
       <c r="I9" s="5">
-        <v>1.0688259099999999</v>
+        <v>1.06882591</v>
       </c>
       <c r="J9" s="5">
         <v>1.60323887</v>
       </c>
       <c r="K9" s="5">
-        <v>0.80161943000000002</v>
+        <v>0.80161943</v>
       </c>
       <c r="L9" s="5">
         <v>0.97975709</v>
       </c>
       <c r="M9" s="5">
-        <v>0.99595142000000003</v>
+        <v>0.99595142</v>
       </c>
       <c r="N9" s="5">
-        <v>2.7604000000000001E-3</v>
+        <v>0.0027604</v>
       </c>
       <c r="O9" s="5">
         <v>166.67038223</v>
       </c>
       <c r="P9" s="5">
-        <v>19958.905307870002</v>
+        <v>19958.90530787</v>
       </c>
       <c r="Q9" s="5">
-        <v>0.46194674000000002</v>
+        <v>0.46194674</v>
       </c>
       <c r="R9" s="5">
-        <v>40.321020820000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>40.32102082</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>0.42857142999999998</v>
+        <v>0.42857143</v>
       </c>
       <c r="C10" s="3">
-        <v>0.69230769000000003</v>
+        <v>0.69230769</v>
       </c>
       <c r="D10" s="3">
-        <v>0.89743589999999995</v>
+        <v>0.8974359</v>
       </c>
       <c r="E10" s="3">
-        <v>0.97222222000000003</v>
+        <v>0.97222222</v>
       </c>
       <c r="F10" s="3">
-        <v>0.99242423999999996</v>
+        <v>0.99242424</v>
       </c>
       <c r="G10" s="3">
-        <v>2.5316499999999999E-3</v>
+        <v>0.00253165</v>
       </c>
       <c r="H10" s="3">
-        <v>1.0025316500000001</v>
+        <v>1.00253165</v>
       </c>
       <c r="I10" s="3">
-        <v>1.0860759499999999</v>
+        <v>1.08607595</v>
       </c>
       <c r="J10" s="3">
-        <v>1.7544303800000001</v>
+        <v>1.75443038</v>
       </c>
       <c r="K10" s="3">
-        <v>0.75189872999999996</v>
+        <v>0.75189873</v>
       </c>
       <c r="L10" s="3">
-        <v>0.97468354000000001</v>
+        <v>0.97468354</v>
       </c>
       <c r="M10" s="3">
-        <v>0.99493670999999995</v>
+        <v>0.9949367099999999</v>
       </c>
       <c r="N10" s="3">
-        <v>3.4522400000000001E-3</v>
+        <v>0.00345224</v>
       </c>
       <c r="O10" s="3">
-        <v>166.50057294999999</v>
+        <v>166.50057295</v>
       </c>
       <c r="P10" s="3">
         <v>19969.01108271</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.57772579000000002</v>
+        <v>0.57772579</v>
       </c>
       <c r="R10" s="3">
-        <v>50.426795660000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>50.42679566</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="4">
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>0.35714286000000001</v>
+        <v>0.35714286</v>
       </c>
       <c r="C11" s="5">
         <v>0.625</v>
@@ -1102,149 +1086,149 @@
         <v>0.875</v>
       </c>
       <c r="E11" s="5">
-        <v>0.96551724000000005</v>
+        <v>0.9655172400000001</v>
       </c>
       <c r="F11" s="5">
-        <v>0.99059560999999996</v>
+        <v>0.99059561</v>
       </c>
       <c r="G11" s="5">
-        <v>3.1446500000000001E-3</v>
+        <v>0.00314465</v>
       </c>
       <c r="H11" s="5">
-        <v>1.0031446500000001</v>
+        <v>1.00314465</v>
       </c>
       <c r="I11" s="5">
-        <v>1.1069182399999999</v>
+        <v>1.10691824</v>
       </c>
       <c r="J11" s="5">
         <v>1.93710692</v>
       </c>
       <c r="K11" s="5">
-        <v>0.69182390000000005</v>
+        <v>0.6918239</v>
       </c>
       <c r="L11" s="5">
-        <v>0.96855345999999998</v>
+        <v>0.96855346</v>
       </c>
       <c r="M11" s="5">
-        <v>0.99371069000000001</v>
+        <v>0.99371069</v>
       </c>
       <c r="N11" s="5">
-        <v>4.2881600000000001E-3</v>
+        <v>0.00428816</v>
       </c>
       <c r="O11" s="5">
         <v>166.29540157</v>
       </c>
       <c r="P11" s="5">
-        <v>19981.221344549998</v>
+        <v>19981.22134455</v>
       </c>
       <c r="Q11" s="5">
-        <v>0.71761536999999997</v>
+        <v>0.71761537</v>
       </c>
       <c r="R11" s="5">
-        <v>62.637057509999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+        <v>62.63705751</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>0.28571428999999998</v>
+        <v>0.28571429</v>
       </c>
       <c r="C12" s="3">
-        <v>0.54545454999999998</v>
+        <v>0.54545455</v>
       </c>
       <c r="D12" s="3">
-        <v>0.84848484999999996</v>
+        <v>0.84848485</v>
       </c>
       <c r="E12" s="3">
-        <v>0.95726496000000005</v>
+        <v>0.9572649600000001</v>
       </c>
       <c r="F12" s="3">
-        <v>0.98834498999999998</v>
+        <v>0.98834499</v>
       </c>
       <c r="G12" s="3">
-        <v>3.9001600000000002E-3</v>
+        <v>0.00390016</v>
       </c>
       <c r="H12" s="3">
-        <v>1.0039001599999999</v>
+        <v>1.00390016</v>
       </c>
       <c r="I12" s="3">
         <v>1.1326053</v>
       </c>
       <c r="J12" s="3">
-        <v>2.1622464899999998</v>
+        <v>2.16224649</v>
       </c>
       <c r="K12" s="3">
-        <v>0.61778471000000001</v>
+        <v>0.61778471</v>
       </c>
       <c r="L12" s="3">
-        <v>0.96099844000000001</v>
+        <v>0.96099844</v>
       </c>
       <c r="M12" s="3">
-        <v>0.99219968999999997</v>
+        <v>0.99219969</v>
       </c>
       <c r="N12" s="3">
-        <v>5.3183900000000001E-3</v>
+        <v>0.00531839</v>
       </c>
       <c r="O12" s="3">
-        <v>166.04253825000001</v>
+        <v>166.04253825</v>
       </c>
       <c r="P12" s="3">
-        <v>19996.269873180001</v>
+        <v>19996.26987318</v>
       </c>
       <c r="Q12" s="3">
         <v>0.89002218</v>
       </c>
       <c r="R12" s="3">
-        <v>77.685586139999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+        <v>77.68558614</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="4">
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>0.21428570999999999</v>
+        <v>0.21428571</v>
       </c>
       <c r="C13" s="5">
         <v>0.45</v>
       </c>
       <c r="D13" s="5">
-        <v>0.81666667000000004</v>
+        <v>0.81666667</v>
       </c>
       <c r="E13" s="5">
-        <v>0.94685989999999998</v>
+        <v>0.9468599</v>
       </c>
       <c r="F13" s="5">
-        <v>0.98550724999999995</v>
+        <v>0.9855072499999999</v>
       </c>
       <c r="G13" s="5">
-        <v>4.8543700000000002E-3</v>
+        <v>0.00485437</v>
       </c>
       <c r="H13" s="5">
-        <v>1.0048543700000001</v>
+        <v>1.00485437</v>
       </c>
       <c r="I13" s="5">
-        <v>1.1650485399999999</v>
+        <v>1.16504854</v>
       </c>
       <c r="J13" s="5">
-        <v>2.4466019399999999</v>
+        <v>2.44660194</v>
       </c>
       <c r="K13" s="5">
-        <v>0.52427184000000004</v>
+        <v>0.52427184</v>
       </c>
       <c r="L13" s="5">
-        <v>0.95145630999999997</v>
+        <v>0.95145631</v>
       </c>
       <c r="M13" s="5">
-        <v>0.99029126000000001</v>
+        <v>0.99029126</v>
       </c>
       <c r="N13" s="5">
-        <v>6.6195899999999998E-3</v>
+        <v>0.00661959</v>
       </c>
       <c r="O13" s="5">
-        <v>165.72316717999999</v>
+        <v>165.72316718</v>
       </c>
       <c r="P13" s="5">
         <v>20015.27644378</v>
@@ -1253,33 +1237,33 @@
         <v>1.10777518</v>
       </c>
       <c r="R13" s="5">
-        <v>96.692156729999994</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+        <v>96.69215672999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <v>0.14285713999999999</v>
+        <v>0.14285714</v>
       </c>
       <c r="C14" s="3">
-        <v>0.33333332999999998</v>
+        <v>0.33333333</v>
       </c>
       <c r="D14" s="3">
-        <v>0.77777777999999997</v>
+        <v>0.77777778</v>
       </c>
       <c r="E14" s="3">
-        <v>0.93333332999999996</v>
+        <v>0.93333333</v>
       </c>
       <c r="F14" s="3">
-        <v>0.98181817999999998</v>
+        <v>0.98181818</v>
       </c>
       <c r="G14" s="3">
-        <v>6.0975600000000001E-3</v>
+        <v>0.00609756</v>
       </c>
       <c r="H14" s="3">
-        <v>1.0060975599999999</v>
+        <v>1.00609756</v>
       </c>
       <c r="I14" s="3">
         <v>1.20731707</v>
@@ -1288,91 +1272,91 @@
         <v>2.81707317</v>
       </c>
       <c r="K14" s="3">
-        <v>0.40243901999999998</v>
+        <v>0.40243902</v>
       </c>
       <c r="L14" s="3">
-        <v>0.93902439000000004</v>
+        <v>0.93902439</v>
       </c>
       <c r="M14" s="3">
         <v>0.98780488</v>
       </c>
       <c r="N14" s="3">
-        <v>8.3148600000000003E-3</v>
+        <v>0.00831486</v>
       </c>
       <c r="O14" s="3">
         <v>165.30707601</v>
       </c>
       <c r="P14" s="3">
-        <v>20040.039069279999</v>
+        <v>20040.03906928</v>
       </c>
       <c r="Q14" s="3">
-        <v>1.3914736999999999</v>
+        <v>1.3914737</v>
       </c>
       <c r="R14" s="3">
         <v>121.45478224</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" s="4">
         <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>7.1428569999999997E-2</v>
+        <v>0.07142857</v>
       </c>
       <c r="C15" s="5">
         <v>0.1875</v>
       </c>
       <c r="D15" s="5">
-        <v>0.72916667000000002</v>
+        <v>0.72916667</v>
       </c>
       <c r="E15" s="5">
-        <v>0.91503268000000004</v>
+        <v>0.91503268</v>
       </c>
       <c r="F15" s="5">
-        <v>0.97682709000000001</v>
+        <v>0.97682709</v>
       </c>
       <c r="G15" s="5">
-        <v>7.7844300000000002E-3</v>
+        <v>0.00778443</v>
       </c>
       <c r="H15" s="5">
-        <v>1.0077844300000001</v>
+        <v>1.00778443</v>
       </c>
       <c r="I15" s="5">
-        <v>1.2646706599999999</v>
+        <v>1.26467066</v>
       </c>
       <c r="J15" s="5">
-        <v>3.3197604799999998</v>
+        <v>3.31976048</v>
       </c>
       <c r="K15" s="5">
         <v>0.23712575</v>
       </c>
       <c r="L15" s="5">
-        <v>0.92215568999999997</v>
+        <v>0.92215569</v>
       </c>
       <c r="M15" s="5">
-        <v>0.98443113999999998</v>
+        <v>0.98443114</v>
       </c>
       <c r="N15" s="5">
-        <v>1.061513E-2</v>
+        <v>0.01061513</v>
       </c>
       <c r="O15" s="5">
-        <v>164.74248764000001</v>
+        <v>164.74248764</v>
       </c>
       <c r="P15" s="5">
-        <v>20073.639134789999</v>
+        <v>20073.63913479</v>
       </c>
       <c r="Q15" s="5">
-        <v>1.7764203199999999</v>
+        <v>1.77642032</v>
       </c>
       <c r="R15" s="5">
-        <v>155.05484774000001</v>
+        <v>155.05484774</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:R1"/>
   <conditionalFormatting sqref="A1:R15">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>TRUE</formula>
+      <formula>True</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
